--- a/app/tests/clients_export.xlsx
+++ b/app/tests/clients_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>phone</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
           <t>081000000002</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +511,11 @@
           <t>081000000003</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:21</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,6 +541,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>081000000004</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-11-02 17:02:22</t>
         </is>
       </c>
     </row>

--- a/app/tests/clients_export.xlsx
+++ b/app/tests/clients_export.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:21</t>
+          <t>2025-11-02 21:20:22</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:21</t>
+          <t>2025-11-02 21:20:23</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:22</t>
+          <t>2025-11-02 21:20:23</t>
         </is>
       </c>
     </row>

--- a/app/tests/clients_export.xlsx
+++ b/app/tests/clients_export.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:22</t>
+          <t>2025-11-03 14:14:46</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:23</t>
+          <t>2025-11-03 14:14:46</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-11-02 21:20:23</t>
+          <t>2025-11-03 14:14:47</t>
         </is>
       </c>
     </row>
